--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H2">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>87.55870721002481</v>
+        <v>63.45359300000001</v>
       </c>
       <c r="N2">
-        <v>87.55870721002481</v>
+        <v>190.360779</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="Q2">
-        <v>328.7037612378883</v>
+        <v>464.0042296029187</v>
       </c>
       <c r="R2">
-        <v>328.7037612378883</v>
+        <v>4176.038066426268</v>
       </c>
       <c r="S2">
-        <v>0.03319955205189667</v>
+        <v>0.02228850250295022</v>
       </c>
       <c r="T2">
-        <v>0.03319955205189667</v>
+        <v>0.02228850250295022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6726321598774</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H3">
-        <v>29.6726321598774</v>
+        <v>21.937492</v>
       </c>
       <c r="I3">
-        <v>0.2624115604948509</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J3">
-        <v>0.2624115604948509</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>87.55870721002481</v>
+        <v>0.3851286666666667</v>
       </c>
       <c r="N3">
-        <v>87.55870721002481</v>
+        <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002265763296377967</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.002265763296377967</v>
       </c>
       <c r="Q3">
-        <v>2598.097311437471</v>
+        <v>2.816252347990222</v>
       </c>
       <c r="R3">
-        <v>2598.097311437471</v>
+        <v>25.346271131912</v>
       </c>
       <c r="S3">
-        <v>0.2624115604948509</v>
+        <v>0.0001352790416605389</v>
       </c>
       <c r="T3">
-        <v>0.2624115604948509</v>
+        <v>0.0001352790416605389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.40009466295379</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H4">
-        <v>7.40009466295379</v>
+        <v>21.937492</v>
       </c>
       <c r="I4">
-        <v>0.06544314565194087</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J4">
-        <v>0.06544314565194087</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.55870721002481</v>
+        <v>106.117587</v>
       </c>
       <c r="N4">
-        <v>87.55870721002481</v>
+        <v>318.352761</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.6243039133020368</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6243039133020368</v>
       </c>
       <c r="Q4">
-        <v>647.9427219200381</v>
+        <v>775.984571957268</v>
       </c>
       <c r="R4">
-        <v>647.9427219200381</v>
+        <v>6983.861147615413</v>
       </c>
       <c r="S4">
-        <v>0.06544314565194087</v>
+        <v>0.03727451814204654</v>
       </c>
       <c r="T4">
-        <v>0.06544314565194087</v>
+        <v>0.03727451814204654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,799 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.312497333333334</v>
+      </c>
+      <c r="H5">
+        <v>21.937492</v>
+      </c>
+      <c r="I5">
+        <v>0.05970572560549242</v>
+      </c>
+      <c r="J5">
+        <v>0.05970572560549242</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.021141</v>
+      </c>
+      <c r="N5">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P5">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q5">
+        <v>0.154593506124</v>
+      </c>
+      <c r="R5">
+        <v>1.391341555116</v>
+      </c>
+      <c r="S5">
+        <v>7.42591883512208E-06</v>
+      </c>
+      <c r="T5">
+        <v>7.42591883512208E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>29.68221266666667</v>
+      </c>
+      <c r="H6">
+        <v>89.046638</v>
+      </c>
+      <c r="I6">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="J6">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N6">
+        <v>190.360779</v>
+      </c>
+      <c r="O6">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P6">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q6">
+        <v>1883.443041890112</v>
+      </c>
+      <c r="R6">
+        <v>16950.987377011</v>
+      </c>
+      <c r="S6">
+        <v>0.09047142736016961</v>
+      </c>
+      <c r="T6">
+        <v>0.09047142736016961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>29.68221266666667</v>
+      </c>
+      <c r="H7">
+        <v>89.046638</v>
+      </c>
+      <c r="I7">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="J7">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.155386</v>
+      </c>
+      <c r="O7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q7">
+        <v>11.43147098802978</v>
+      </c>
+      <c r="R7">
+        <v>102.883238892268</v>
+      </c>
+      <c r="S7">
+        <v>0.000549112170695398</v>
+      </c>
+      <c r="T7">
+        <v>0.000549112170695398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>72.2498731795101</v>
-      </c>
-      <c r="H5">
-        <v>72.2498731795101</v>
-      </c>
-      <c r="I5">
-        <v>0.6389457418013116</v>
-      </c>
-      <c r="J5">
-        <v>0.6389457418013116</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>87.55870721002481</v>
-      </c>
-      <c r="N5">
-        <v>87.55870721002481</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>6326.105491686149</v>
-      </c>
-      <c r="R5">
-        <v>6326.105491686149</v>
-      </c>
-      <c r="S5">
-        <v>0.6389457418013116</v>
-      </c>
-      <c r="T5">
-        <v>0.6389457418013116</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>29.68221266666667</v>
+      </c>
+      <c r="H8">
+        <v>89.046638</v>
+      </c>
+      <c r="I8">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="J8">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>106.117587</v>
+      </c>
+      <c r="N8">
+        <v>318.352761</v>
+      </c>
+      <c r="O8">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P8">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q8">
+        <v>3149.804785007502</v>
+      </c>
+      <c r="R8">
+        <v>28348.24306506752</v>
+      </c>
+      <c r="S8">
+        <v>0.1513012756252743</v>
+      </c>
+      <c r="T8">
+        <v>0.1513012756252743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>29.68221266666667</v>
+      </c>
+      <c r="H9">
+        <v>89.046638</v>
+      </c>
+      <c r="I9">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="J9">
+        <v>0.242351957758873</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.021141</v>
+      </c>
+      <c r="N9">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P9">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q9">
+        <v>0.6275116579860002</v>
+      </c>
+      <c r="R9">
+        <v>5.647604921874001</v>
+      </c>
+      <c r="S9">
+        <v>3.014260273364419E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.014260273364419E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H10">
+        <v>33.194114</v>
+      </c>
+      <c r="I10">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J10">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N10">
+        <v>190.360779</v>
+      </c>
+      <c r="O10">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P10">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q10">
+        <v>702.0952665838673</v>
+      </c>
+      <c r="R10">
+        <v>6318.857399254806</v>
+      </c>
+      <c r="S10">
+        <v>0.03372523590993057</v>
+      </c>
+      <c r="T10">
+        <v>0.03372523590993058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H11">
+        <v>33.194114</v>
+      </c>
+      <c r="I11">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J11">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.155386</v>
+      </c>
+      <c r="O11">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P11">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q11">
+        <v>4.261334955333777</v>
+      </c>
+      <c r="R11">
+        <v>38.352014598004</v>
+      </c>
+      <c r="S11">
+        <v>0.0002046937694924596</v>
+      </c>
+      <c r="T11">
+        <v>0.0002046937694924597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H12">
+        <v>33.194114</v>
+      </c>
+      <c r="I12">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J12">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>106.117587</v>
+      </c>
+      <c r="N12">
+        <v>318.352761</v>
+      </c>
+      <c r="O12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q12">
+        <v>1174.159760094306</v>
+      </c>
+      <c r="R12">
+        <v>10567.43784084875</v>
+      </c>
+      <c r="S12">
+        <v>0.05640091422037491</v>
+      </c>
+      <c r="T12">
+        <v>0.05640091422037492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.06470466666667</v>
+      </c>
+      <c r="H13">
+        <v>33.194114</v>
+      </c>
+      <c r="I13">
+        <v>0.09034208022509747</v>
+      </c>
+      <c r="J13">
+        <v>0.09034208022509749</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.021141</v>
+      </c>
+      <c r="N13">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P13">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q13">
+        <v>0.233918921358</v>
+      </c>
+      <c r="R13">
+        <v>2.105270292222</v>
+      </c>
+      <c r="S13">
+        <v>1.123632529952784E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.123632529952784E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H14">
+        <v>223.248695</v>
+      </c>
+      <c r="I14">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J14">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N14">
+        <v>190.360779</v>
+      </c>
+      <c r="O14">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P14">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q14">
+        <v>4721.977276770378</v>
+      </c>
+      <c r="R14">
+        <v>42497.79549093341</v>
+      </c>
+      <c r="S14">
+        <v>0.2268207823067409</v>
+      </c>
+      <c r="T14">
+        <v>0.2268207823067409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H15">
+        <v>223.248695</v>
+      </c>
+      <c r="I15">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J15">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.155386</v>
+      </c>
+      <c r="O15">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P15">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q15">
+        <v>28.65982408014111</v>
+      </c>
+      <c r="R15">
+        <v>257.93841672127</v>
+      </c>
+      <c r="S15">
+        <v>0.001376678314529571</v>
+      </c>
+      <c r="T15">
+        <v>0.001376678314529571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H16">
+        <v>223.248695</v>
+      </c>
+      <c r="I16">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J16">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>106.117587</v>
+      </c>
+      <c r="N16">
+        <v>318.352761</v>
+      </c>
+      <c r="O16">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P16">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q16">
+        <v>7896.870938099654</v>
+      </c>
+      <c r="R16">
+        <v>71071.83844289689</v>
+      </c>
+      <c r="S16">
+        <v>0.379327205314341</v>
+      </c>
+      <c r="T16">
+        <v>0.379327205314341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>74.41623166666666</v>
+      </c>
+      <c r="H17">
+        <v>223.248695</v>
+      </c>
+      <c r="I17">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="J17">
+        <v>0.6076002364105371</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.021141</v>
+      </c>
+      <c r="N17">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P17">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q17">
+        <v>1.573233553665</v>
+      </c>
+      <c r="R17">
+        <v>14.159101982985</v>
+      </c>
+      <c r="S17">
+        <v>7.557047492561705E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.557047492561705E-05</v>
       </c>
     </row>
   </sheetData>
